--- a/Crawling/music/crawled_data/live_genie/live_genie_20220503_110201.xlsx
+++ b/Crawling/music/crawled_data/live_genie/live_genie_20220503_110201.xlsx
@@ -34,7 +34,7 @@
     <t>앨범</t>
   </si>
   <si>
-    <t>genie</t>
+    <t>Genie</t>
   </si>
   <si>
     <t>2022-05-03</t>
